--- a/docs/uncertainties/Uncertainty_contributions.xlsx
+++ b/docs/uncertainties/Uncertainty_contributions.xlsx
@@ -8,25 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdv\PycharmProjects\hypernets_processor\docs\uncertainties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB6C58F-F8C0-4C51-A3BD-EE1CFC52CBB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10898894-84D0-49D7-A99F-8233A09E0110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
   <si>
     <t>Currently included:</t>
   </si>
@@ -140,9 +148,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>when using the same lamp</t>
   </si>
   <si>
     <t>wavelengths correlated</t>
@@ -273,6 +278,42 @@
   </si>
   <si>
     <t>Not planning to include:</t>
+  </si>
+  <si>
+    <t>VIS and SWIR correlated</t>
+  </si>
+  <si>
+    <t>Correlation length</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>CHANGE to FULL</t>
+  </si>
+  <si>
+    <t>not correlated</t>
+  </si>
+  <si>
+    <t>negligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLARISATION </t>
+  </si>
+  <si>
+    <t>calibration drift</t>
+  </si>
+  <si>
+    <t>x (complex)</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>the same lap is used but its traceability is provided through different instruments, which would affect the error correlation structure. However the detailed correlation matrix is not provided with the correlation certificate.</t>
   </si>
 </sst>
 </file>
@@ -352,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -383,6 +424,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,31 +720,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="78" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" customWidth="1"/>
-    <col min="8" max="8" width="49.90625" customWidth="1"/>
+    <col min="4" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" customWidth="1"/>
+    <col min="8" max="9" width="20.36328125" customWidth="1"/>
+    <col min="10" max="10" width="49.90625" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.5" customHeight="1">
+    <row r="3" spans="1:11" ht="30.5" customHeight="1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>32</v>
@@ -703,18 +760,27 @@
         <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -723,10 +789,15 @@
         <v>20</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="25" customHeight="1">
+      <c r="H4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="25" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -745,14 +816,20 @@
       <c r="F5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="48.5" customHeight="1">
+      <c r="G5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="48.5" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -771,14 +848,18 @@
       <c r="F6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="12"/>
+      <c r="J6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -795,14 +876,18 @@
       <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -819,12 +904,18 @@
       <c r="F8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -838,10 +929,11 @@
       <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="8"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -858,14 +950,18 @@
       <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -882,14 +978,18 @@
       <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="K11" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
@@ -906,12 +1006,17 @@
       <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>11</v>
       </c>
@@ -928,14 +1033,15 @@
       <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>12</v>
       </c>
@@ -952,12 +1058,18 @@
       <c r="F14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>13</v>
       </c>
@@ -974,12 +1086,18 @@
       <c r="F15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>14</v>
       </c>
@@ -996,12 +1114,18 @@
       <c r="F16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1018,12 +1142,18 @@
       <c r="F17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="43" customHeight="1">
+      <c r="G17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="43" customHeight="1">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1040,14 +1170,15 @@
       <c r="F18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="35" customHeight="1">
+      <c r="H18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="35" customHeight="1">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1064,14 +1195,15 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.5">
+      <c r="H19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="43.5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1090,19 +1222,22 @@
       <c r="F20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="29">
+      <c r="H20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="29">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
@@ -1114,17 +1249,22 @@
       <c r="F21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28">
+    <row r="27" spans="1:10" ht="28">
       <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
@@ -1138,88 +1278,107 @@
         <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="H28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="B43" t="s">
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
